--- a/biology/Zoologie/Cybium/Cybium.xlsx
+++ b/biology/Zoologie/Cybium/Cybium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cybium est le nom d'une revue scientifique à comité de lecture. C'est aujourd'hui un titre édité par la Société française d'ichtyologie. Les textes y sont maintenant publiés en anglais. La revue ne publie que des documents qui sont en relation avec l'ichtyologie, dans le domaine théorique ou appliqué, concernant aussi bien les poissons fossiles ou actuels, et quels que soient les milieux où ils vivent.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cybium n'est plus le nom d'un genre valide. C'était le nom latin d'une pièce de thon salée et séchée, ce terme dérivant lui-même du grec ancien κύβιον, terme où l'on reconnait la racine κύβος qui signifie « cube ».
 </t>
